--- a/策划文档/【英雄绘卷】策划方案_霸业.xlsx
+++ b/策划文档/【英雄绘卷】策划方案_霸业.xlsx
@@ -4,21 +4,58 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20928" windowHeight="9960" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="经营表" sheetId="6" r:id="rId3"/>
+    <sheet name="思路" sheetId="7" r:id="rId1"/>
+    <sheet name="导图" sheetId="5" r:id="rId2"/>
+    <sheet name="设定" sheetId="4" r:id="rId3"/>
+    <sheet name="经营表" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
-  <si>
-    <t>经营及资源</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
+  <si>
+    <t>霸业任务</t>
+  </si>
+  <si>
+    <t>资源争夺</t>
+  </si>
+  <si>
+    <t>守城战</t>
+  </si>
+  <si>
+    <t>团体协作</t>
+  </si>
+  <si>
+    <t>城池经营</t>
+  </si>
+  <si>
+    <t>个人养成</t>
+  </si>
+  <si>
+    <t>城池属性一和城池属性二增长幅度尽量保持一致</t>
+  </si>
+  <si>
+    <t>城池对战</t>
+  </si>
+  <si>
+    <t>团体对抗</t>
+  </si>
+  <si>
+    <t>经营及资源（卡牌材料）</t>
+  </si>
+  <si>
+    <t>经营类型</t>
+  </si>
+  <si>
+    <t>卡牌材料</t>
+  </si>
+  <si>
+    <t>卡牌类型</t>
   </si>
   <si>
     <t>牧场</t>
@@ -27,7 +64,10 @@
     <t>肉食</t>
   </si>
   <si>
-    <t>武将健康状态</t>
+    <t>武将</t>
+  </si>
+  <si>
+    <t>健康状态</t>
   </si>
   <si>
     <t>酒坊</t>
@@ -36,7 +76,7 @@
     <t>酒水</t>
   </si>
   <si>
-    <t>武将精神状态</t>
+    <t>精神状态</t>
   </si>
   <si>
     <t>军营</t>
@@ -93,6 +133,9 @@
     <t>生铁</t>
   </si>
   <si>
+    <t>装备</t>
+  </si>
+  <si>
     <t>武器</t>
   </si>
   <si>
@@ -126,6 +169,21 @@
     <t>城池属性</t>
   </si>
   <si>
+    <t>1级城池</t>
+  </si>
+  <si>
+    <t>2级城池</t>
+  </si>
+  <si>
+    <t>3级城池</t>
+  </si>
+  <si>
+    <t>4级城池</t>
+  </si>
+  <si>
+    <t>5级城池</t>
+  </si>
+  <si>
     <t>人口</t>
   </si>
   <si>
@@ -138,52 +196,52 @@
     <t>商业</t>
   </si>
   <si>
+    <t>城防</t>
+  </si>
+  <si>
+    <t>运势</t>
+  </si>
+  <si>
+    <t>城池内事件</t>
+  </si>
+  <si>
+    <t>连月大雨</t>
+  </si>
+  <si>
+    <t>修渠道</t>
+  </si>
+  <si>
+    <t>置之不理</t>
+  </si>
+  <si>
+    <t>根据完成度，来决定城池状态</t>
+  </si>
+  <si>
+    <t>干旱</t>
+  </si>
+  <si>
+    <t>修水井</t>
+  </si>
+  <si>
+    <t>风调雨顺</t>
+  </si>
+  <si>
+    <t>开垦良田</t>
+  </si>
+  <si>
+    <t>城池状态</t>
+  </si>
+  <si>
+    <t>影响属性</t>
+  </si>
+  <si>
+    <t>触发概率</t>
+  </si>
+  <si>
+    <t>消除概率</t>
+  </si>
+  <si>
     <t>城建</t>
-  </si>
-  <si>
-    <t>运势</t>
-  </si>
-  <si>
-    <t>影响城池收益，城池战收益</t>
-  </si>
-  <si>
-    <t>城池内事件</t>
-  </si>
-  <si>
-    <t>连月大雨</t>
-  </si>
-  <si>
-    <t>修渠道</t>
-  </si>
-  <si>
-    <t>置之不理</t>
-  </si>
-  <si>
-    <t>根据完成度，来决定城池状态</t>
-  </si>
-  <si>
-    <t>干旱</t>
-  </si>
-  <si>
-    <t>修水井</t>
-  </si>
-  <si>
-    <t>风调雨顺</t>
-  </si>
-  <si>
-    <t>开垦良田</t>
-  </si>
-  <si>
-    <t>城池状态</t>
-  </si>
-  <si>
-    <t>影响属性</t>
-  </si>
-  <si>
-    <t>触发概率</t>
-  </si>
-  <si>
-    <t>消除概率</t>
   </si>
   <si>
     <t>旱灾</t>
@@ -239,12 +297,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +325,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -275,20 +347,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,23 +367,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -334,7 +392,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,11 +405,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,22 +453,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -395,16 +460,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,37 +495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +525,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,127 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,8 +707,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +743,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -690,24 +774,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,11 +795,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,10 +809,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,137 +821,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,6 +962,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,6 +1038,2770 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3223260" y="1295400"/>
+          <a:ext cx="1280160" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>玩家个人经营</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>花费元宝和时间</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5521960" y="1308100"/>
+          <a:ext cx="1280160" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>城池属性一</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>人口</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>治安</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4503420" y="1672590"/>
+          <a:ext cx="1018540" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3197860" y="2755900"/>
+          <a:ext cx="1280160" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>城池集体事件</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>210820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>93980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4478020" y="3100070"/>
+          <a:ext cx="1102360" cy="33020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>93980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5580380" y="2722880"/>
+          <a:ext cx="1280160" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>城池属性二</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>士气</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8168640" y="1996440"/>
+          <a:ext cx="1280160" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>城池等级</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6802120" y="1685290"/>
+          <a:ext cx="1366520" cy="692150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6860540" y="2377440"/>
+          <a:ext cx="1308100" cy="722630"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4665980" y="2273300"/>
+          <a:ext cx="747395" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>城池状态</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>256540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181340" y="317500"/>
+          <a:ext cx="1280160" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>城池官职</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>287020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8808720" y="1071880"/>
+          <a:ext cx="12700" cy="924560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>256540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3863340" y="694690"/>
+          <a:ext cx="4318000" cy="600710"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>414020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106660" y="1305560"/>
+          <a:ext cx="1280160" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>每周全城奖励</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6802120" y="1682750"/>
+          <a:ext cx="3304540" cy="2540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>589280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="589280" y="375920"/>
+          <a:ext cx="1280160" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>玩家属性</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>威望、民心</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1229360" y="1130300"/>
+          <a:ext cx="2608580" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>256540</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1869440" y="694690"/>
+          <a:ext cx="6311900" cy="58420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文本框 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607060" y="2077720"/>
+          <a:ext cx="1280160" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>玩家资源</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="23" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1887220" y="1672590"/>
+          <a:ext cx="1336040" cy="782320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1887220" y="2454910"/>
+          <a:ext cx="1310640" cy="678180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="文本框 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619760" y="4124960"/>
+          <a:ext cx="1280160" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>卡牌</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>武将单位状态</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其他单位数量</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247140" y="2832100"/>
+          <a:ext cx="12700" cy="1292860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3863340" y="2049780"/>
+          <a:ext cx="802640" cy="410210"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3837940" y="2459990"/>
+          <a:ext cx="828040" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="文本框 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10119360" y="2727960"/>
+          <a:ext cx="1280160" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>【城池战】属性</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6860540" y="3100070"/>
+          <a:ext cx="3258820" cy="5080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>383540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9461500" y="694690"/>
+          <a:ext cx="1285240" cy="610870"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1257,10 +4091,102 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:Q39"/>
+  <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.88888888888889" style="2"/>
+    <col min="2" max="2" width="8.88888888888889" style="3"/>
+    <col min="3" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:T26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:Q40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2"/>
@@ -1272,355 +4198,413 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6">
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
       <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
       <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
       <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
       <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
       <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
       <c r="C22" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
+        <v>55</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
       <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2">
+        <v>100</v>
+      </c>
+      <c r="E23" s="5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
       <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
       <c r="C25" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
       <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="12:17">
-      <c r="L35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17">
+      <c r="L36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="9:17">
-      <c r="I37" s="2" t="s">
+      <c r="M37" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J37" s="6">
-        <v>50</v>
-      </c>
-      <c r="K37" s="6">
-        <v>50</v>
-      </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6">
-        <v>-100</v>
-      </c>
-      <c r="O37" s="6">
-        <v>-20</v>
-      </c>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6">
-        <v>10</v>
+      <c r="N37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="9:17">
       <c r="I38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" s="6">
-        <v>30</v>
-      </c>
-      <c r="K38" s="6">
-        <v>30</v>
-      </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6">
-        <v>-50</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>-50</v>
+        <v>75</v>
+      </c>
+      <c r="J38" s="8">
+        <v>50</v>
+      </c>
+      <c r="K38" s="8">
+        <v>50</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8">
+        <v>-100</v>
+      </c>
+      <c r="O38" s="8">
+        <v>-20</v>
+      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="9:17">
       <c r="I39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="6">
+        <v>76</v>
+      </c>
+      <c r="J39" s="8">
+        <v>30</v>
+      </c>
+      <c r="K39" s="8">
+        <v>30</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8">
+        <v>-50</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="40" spans="9:17">
+      <c r="I40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="8">
         <v>20</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K40" s="8">
         <v>70</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L40" s="8">
         <v>100</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M40" s="8">
         <v>50</v>
       </c>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6">
+      <c r="N40" s="8"/>
+      <c r="O40" s="8">
         <v>20</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P40" s="8">
         <v>20</v>
       </c>
-      <c r="Q39" s="6"/>
+      <c r="Q40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L35:Q35"/>
+    <mergeCell ref="L36:Q36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2"/>
-  <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="2" width="8.88888888888889" style="3"/>
-    <col min="3" max="16384" width="8.88888888888889" style="2"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I11"/>
@@ -1636,81 +4620,81 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/【英雄绘卷】策划方案_霸业.xlsx
+++ b/策划文档/【英雄绘卷】策划方案_霸业.xlsx
@@ -297,9 +297,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -330,11 +330,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,23 +344,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,30 +375,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,6 +390,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -421,8 +405,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,25 +453,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,7 +495,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,37 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,37 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +585,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,19 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,37 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,24 +706,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,10 +747,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -758,22 +758,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,145 +809,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,10 +1107,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>花费元宝和时间</a:t>
-          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4094,7 +4090,7 @@
   <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2" outlineLevelCol="2"/>
@@ -4166,7 +4162,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:T26"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
@@ -4186,7 +4182,7 @@
   <dimension ref="B1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2"/>
